--- a/biology/Zoologie/Himalayana_siliwalae/Himalayana_siliwalae.xlsx
+++ b/biology/Zoologie/Himalayana_siliwalae/Himalayana_siliwalae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Himalayana siliwalae est une espèce d'araignées aranéomorphes de la famille des Oonopidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Himalayana siliwalae est une espèce d'araignées aranéomorphes de la famille des Oonopidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Bengale-Occidental en Inde[1],[2]. Elle se rencontre dans le district de Darjeeling vers 1 200 m d'altitude.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Bengale-Occidental en Inde,. Elle se rencontre dans le district de Darjeeling vers 1 200 m d'altitude.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 1,52 mm et la femelle paratype 1,50 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 1,52 mm et la femelle paratype 1,50 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Manju Siliwal[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Manju Siliwal.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Grismado, Deeleman-Reinhold, Piacentini, Izquierdo &amp; Ramírez, 2014 : Taxonomic review of the goblin spiders of the genus Dysderoides Fage and their Himalayan relatives of the genera Trilacuna Tong and Li and Himalayana, new genus (Araneae, Oonopidae). Bulletin of the American Museum of Natural History, no 387, p. 1-108 (texte intégral).</t>
         </is>
